--- a/models/code/criterionVar/Criterionx/mixFits.xlsx
+++ b/models/code/criterionVar/Criterionx/mixFits.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t>[]</t>
   </si>
@@ -388,14 +388,939 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B21"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>639.61370902615397</v>
+      </c>
+      <c r="B2">
+        <v>1344.32681826208</v>
+      </c>
+      <c r="C2">
+        <v>0.210792512144517</v>
+      </c>
+      <c r="D2">
+        <v>-1.1572934724137899E-3</v>
+      </c>
+      <c r="E2">
+        <v>0.44407205632365998</v>
+      </c>
+      <c r="F2">
+        <v>-0.139709682584895</v>
+      </c>
+      <c r="G2">
+        <v>5.5798803664123698E-3</v>
+      </c>
+      <c r="H2">
+        <v>5.6760642747758503E-3</v>
+      </c>
+      <c r="I2">
+        <v>0.69301255265221096</v>
+      </c>
+      <c r="J2">
+        <v>1.4607299288892299</v>
+      </c>
+      <c r="K2">
+        <v>0.73127438615587903</v>
+      </c>
+      <c r="L2">
+        <v>0.62394279100482397</v>
+      </c>
+      <c r="M2">
+        <v>0.216800014730163</v>
+      </c>
+      <c r="N2">
+        <v>9.8941433555478006E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1230.7608306434099</v>
+      </c>
+      <c r="B3">
+        <v>2537.08697312602</v>
+      </c>
+      <c r="C3">
+        <v>2.8014968588539202</v>
+      </c>
+      <c r="D3">
+        <v>-9.3134143478470793E-2</v>
+      </c>
+      <c r="E3">
+        <v>2.7145319565121202</v>
+      </c>
+      <c r="F3">
+        <v>-5.9609409535664799E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>9.7204949636254398E-5</v>
+      </c>
+      <c r="H3">
+        <v>5.0701092904320805E-4</v>
+      </c>
+      <c r="I3">
+        <v>2.4099887501243602</v>
+      </c>
+      <c r="J3">
+        <v>1.53121361804865</v>
+      </c>
+      <c r="K3">
+        <v>0.67959327383832702</v>
+      </c>
+      <c r="L3">
+        <v>0.44301046780801301</v>
+      </c>
+      <c r="M3">
+        <v>0.26044247402224202</v>
+      </c>
+      <c r="N3" s="1">
+        <v>8.9843587905413303E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>938.82099941161596</v>
+      </c>
+      <c r="B4">
+        <v>1952.07242502949</v>
+      </c>
+      <c r="C4">
+        <v>3.2839548809702199</v>
+      </c>
+      <c r="D4">
+        <v>8.0064077971855399E-2</v>
+      </c>
+      <c r="E4">
+        <v>3.5133506282476898</v>
+      </c>
+      <c r="F4">
+        <v>7.15675738719214E-3</v>
+      </c>
+      <c r="G4">
+        <v>1.50942996443982E-3</v>
+      </c>
+      <c r="H4">
+        <v>2.3559076136480798E-3</v>
+      </c>
+      <c r="I4">
+        <v>2.2355209502220101</v>
+      </c>
+      <c r="J4">
+        <v>1.27138742472233</v>
+      </c>
+      <c r="K4">
+        <v>0.48356911284424497</v>
+      </c>
+      <c r="L4">
+        <v>0.51099702331580099</v>
+      </c>
+      <c r="M4" s="1">
+        <v>4.0085787996288502E-7</v>
+      </c>
+      <c r="N4">
+        <v>2.05308604432504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>839.848259153703</v>
+      </c>
+      <c r="B5">
+        <v>1754.9256737118801</v>
+      </c>
+      <c r="C5">
+        <v>6.1650424552580398</v>
+      </c>
+      <c r="D5">
+        <v>-7.7188187961415494E-2</v>
+      </c>
+      <c r="E5">
+        <v>6.4276299888056503</v>
+      </c>
+      <c r="F5">
+        <v>5.1640942889923297E-2</v>
+      </c>
+      <c r="G5">
+        <v>2.1307071625593699E-2</v>
+      </c>
+      <c r="H5">
+        <v>1.27026859247284E-2</v>
+      </c>
+      <c r="I5">
+        <v>4.5024419206529398</v>
+      </c>
+      <c r="J5">
+        <v>1.45872636245278</v>
+      </c>
+      <c r="K5">
+        <v>0.45071042310091902</v>
+      </c>
+      <c r="L5">
+        <v>0.54699260545056905</v>
+      </c>
+      <c r="M5">
+        <v>1.2219834679485E-2</v>
+      </c>
+      <c r="N5">
+        <v>2.3794801124545701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1064.55632826135</v>
+      </c>
+      <c r="B6">
+        <v>2204.4998574854599</v>
+      </c>
+      <c r="C6">
+        <v>3.1471007701757299</v>
+      </c>
+      <c r="D6">
+        <v>-8.1051646189161802E-2</v>
+      </c>
+      <c r="E6">
+        <v>2.8879156407641702</v>
+      </c>
+      <c r="F6">
+        <v>1.26100826391234E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5.7537300804122301E-6</v>
+      </c>
+      <c r="H6">
+        <v>8.07243057608877E-4</v>
+      </c>
+      <c r="I6">
+        <v>2.7428135646879701</v>
+      </c>
+      <c r="J6">
+        <v>1.54069889468949</v>
+      </c>
+      <c r="K6">
+        <v>0.393146896454245</v>
+      </c>
+      <c r="L6">
+        <v>0.54325637362474499</v>
+      </c>
+      <c r="M6" s="1">
+        <v>4.9626582248266597E-7</v>
+      </c>
+      <c r="N6">
+        <v>0.38243660096120102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>820.26624802927302</v>
+      </c>
+      <c r="B7">
+        <v>1714.79166553554</v>
+      </c>
+      <c r="C7">
+        <v>4.6949640789473603</v>
+      </c>
+      <c r="D7">
+        <v>1.38914502782012E-2</v>
+      </c>
+      <c r="E7">
+        <v>5.2325255503520802</v>
+      </c>
+      <c r="F7">
+        <v>-4.3007713318753303E-3</v>
+      </c>
+      <c r="G7">
+        <v>4.3003161788155103E-3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>9.2517682290474103E-7</v>
+      </c>
+      <c r="I7">
+        <v>2.02428172703774</v>
+      </c>
+      <c r="J7">
+        <v>1.01793944428028</v>
+      </c>
+      <c r="K7">
+        <v>0.23996845056646901</v>
+      </c>
+      <c r="L7">
+        <v>0.229143654512203</v>
+      </c>
+      <c r="M7">
+        <v>0.21114544931791501</v>
+      </c>
+      <c r="N7">
+        <v>1.1380917635386301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1731.5751630929601</v>
+      </c>
+      <c r="B8">
+        <v>3537.9867612683602</v>
+      </c>
+      <c r="C8">
+        <v>3.0279143657279199</v>
+      </c>
+      <c r="D8">
+        <v>-1.2657221872275399E-2</v>
+      </c>
+      <c r="E8">
+        <v>4.1304021992911997</v>
+      </c>
+      <c r="F8">
+        <v>7.5090286840015896E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.0021380100507801E-8</v>
+      </c>
+      <c r="H8">
+        <v>2.47425219179336E-3</v>
+      </c>
+      <c r="I8">
+        <v>1.88718676716505</v>
+      </c>
+      <c r="J8">
+        <v>1.18433302520244</v>
+      </c>
+      <c r="K8">
+        <v>0.347974350000685</v>
+      </c>
+      <c r="L8">
+        <v>0.40016386330189901</v>
+      </c>
+      <c r="M8" s="1">
+        <v>6.8222976422241103E-7</v>
+      </c>
+      <c r="N8">
+        <v>1.3560292873550099</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>847.72014057394904</v>
+      </c>
+      <c r="B9">
+        <v>1770.9834731651699</v>
+      </c>
+      <c r="C9">
+        <v>2.8466646513056402</v>
+      </c>
+      <c r="D9">
+        <v>-1.13423978293378E-2</v>
+      </c>
+      <c r="E9">
+        <v>3.1615172424884701</v>
+      </c>
+      <c r="F9">
+        <v>1.6126180037748902E-2</v>
+      </c>
+      <c r="G9">
+        <v>1.3504929586447801E-3</v>
+      </c>
+      <c r="H9">
+        <v>3.23698399427744E-3</v>
+      </c>
+      <c r="I9">
+        <v>2.1282307817544099</v>
+      </c>
+      <c r="J9">
+        <v>1.2665964311970599</v>
+      </c>
+      <c r="K9">
+        <v>0.76320059618363401</v>
+      </c>
+      <c r="L9">
+        <v>9.3059230396714002E-2</v>
+      </c>
+      <c r="M9">
+        <v>0.15010010575982399</v>
+      </c>
+      <c r="N9">
+        <v>7.0790811617267899E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1838.6124918938101</v>
+      </c>
+      <c r="B10">
+        <v>3752.6345937204601</v>
+      </c>
+      <c r="C10">
+        <v>0.57777795315552904</v>
+      </c>
+      <c r="D10">
+        <v>-0.10162599853740099</v>
+      </c>
+      <c r="E10">
+        <v>0.95074654413231696</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2.2825205693642199E-5</v>
+      </c>
+      <c r="G10">
+        <v>1.25578935380964E-3</v>
+      </c>
+      <c r="H10">
+        <v>2.4698176127113201E-3</v>
+      </c>
+      <c r="I10">
+        <v>0.72334542229434695</v>
+      </c>
+      <c r="J10">
+        <v>1.5122148943578899</v>
+      </c>
+      <c r="K10">
+        <v>0.82482215281585503</v>
+      </c>
+      <c r="L10">
+        <v>0.63759799125993299</v>
+      </c>
+      <c r="M10">
+        <v>0.433700000640794</v>
+      </c>
+      <c r="N10">
+        <v>0.26662750675348901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>973.79133218785</v>
+      </c>
+      <c r="B11">
+        <v>2023.12585639298</v>
+      </c>
+      <c r="C11">
+        <v>2.52067213337995</v>
+      </c>
+      <c r="D11">
+        <v>-2.96030310680851E-3</v>
+      </c>
+      <c r="E11">
+        <v>2.61936799779751</v>
+      </c>
+      <c r="F11">
+        <v>3.6622240033457203E-2</v>
+      </c>
+      <c r="G11">
+        <v>1.17836160698982E-2</v>
+      </c>
+      <c r="H11">
+        <v>1.7106306414715E-2</v>
+      </c>
+      <c r="I11">
+        <v>4.0613744961721396</v>
+      </c>
+      <c r="J11">
+        <v>1.8340126390934099</v>
+      </c>
+      <c r="K11">
+        <v>0.89336294990579701</v>
+      </c>
+      <c r="L11">
+        <v>0.918069939046121</v>
+      </c>
+      <c r="M11">
+        <v>1.1121482110647099E-2</v>
+      </c>
+      <c r="N11">
+        <v>1.5722610353316699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2933.3171838827702</v>
+      </c>
+      <c r="B12">
+        <v>5941.6572143635303</v>
+      </c>
+      <c r="C12">
+        <v>5.3740242488850898</v>
+      </c>
+      <c r="D12">
+        <v>2.7492456655690899E-2</v>
+      </c>
+      <c r="E12">
+        <v>4.5244498978779699</v>
+      </c>
+      <c r="F12">
+        <v>8.4965655273957792E-3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>8.3947985137751195E-6</v>
+      </c>
+      <c r="H12">
+        <v>1.7656831375938899E-3</v>
+      </c>
+      <c r="I12">
+        <v>2.3255878084720201</v>
+      </c>
+      <c r="J12">
+        <v>1.1390547475018999</v>
+      </c>
+      <c r="K12">
+        <v>0.36838949771568802</v>
+      </c>
+      <c r="L12">
+        <v>0.449523513296535</v>
+      </c>
+      <c r="M12">
+        <v>5.7763522071449601E-2</v>
+      </c>
+      <c r="N12">
+        <v>0.43766708401175602</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>586.02963884650103</v>
+      </c>
+      <c r="B13">
+        <v>1247.3789995651</v>
+      </c>
+      <c r="C13">
+        <v>4.2061574304448701</v>
+      </c>
+      <c r="D13">
+        <v>9.5158075481890502E-4</v>
+      </c>
+      <c r="E13">
+        <v>4.1689271202309204</v>
+      </c>
+      <c r="F13">
+        <v>-0.127984860710532</v>
+      </c>
+      <c r="G13">
+        <v>1.81324819865183E-3</v>
+      </c>
+      <c r="H13">
+        <v>7.7707050278070199E-3</v>
+      </c>
+      <c r="I13">
+        <v>3.4067319593462901</v>
+      </c>
+      <c r="J13">
+        <v>1.5688497745652701</v>
+      </c>
+      <c r="K13">
+        <v>0.76569249557074504</v>
+      </c>
+      <c r="L13">
+        <v>0.675177655632899</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1.5016756286703E-6</v>
+      </c>
+      <c r="N13">
+        <v>9.3031385775283901E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1640.8025173757801</v>
+      </c>
+      <c r="B14">
+        <v>3355.59004900233</v>
+      </c>
+      <c r="C14">
+        <v>-0.40285259210034902</v>
+      </c>
+      <c r="D14">
+        <v>-3.63979118968166E-3</v>
+      </c>
+      <c r="E14">
+        <v>2.5753567065926601</v>
+      </c>
+      <c r="F14">
+        <v>-1.2770798472321701E-2</v>
+      </c>
+      <c r="G14">
+        <v>5.2943259942512299E-3</v>
+      </c>
+      <c r="H14">
+        <v>3.7864916883855902E-3</v>
+      </c>
+      <c r="I14">
+        <v>2.2885146200356101</v>
+      </c>
+      <c r="J14">
+        <v>0.72194345577276997</v>
+      </c>
+      <c r="K14">
+        <v>0.41321935922131697</v>
+      </c>
+      <c r="L14">
+        <v>7.3492365039535407E-2</v>
+      </c>
+      <c r="M14">
+        <v>0.15010000700401099</v>
+      </c>
+      <c r="N14">
+        <v>2.8069504833991501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1772.54613786915</v>
+      </c>
+      <c r="B16">
+        <v>3620.1612762393302</v>
+      </c>
+      <c r="C16">
+        <v>0.630301097792897</v>
+      </c>
+      <c r="D16">
+        <v>0.11422073416985699</v>
+      </c>
+      <c r="E16">
+        <v>1.6067936223053301</v>
+      </c>
+      <c r="F16">
+        <v>-0.13020401844450699</v>
+      </c>
+      <c r="G16">
+        <v>1.1469914907071899E-3</v>
+      </c>
+      <c r="H16" s="1">
+        <v>4.3916234324910499E-8</v>
+      </c>
+      <c r="I16">
+        <v>1.4495735700366801</v>
+      </c>
+      <c r="J16">
+        <v>2.7635946912929401</v>
+      </c>
+      <c r="K16">
+        <v>0.81852677557662601</v>
+      </c>
+      <c r="L16">
+        <v>0.395012528399033</v>
+      </c>
+      <c r="M16">
+        <v>0.13340008197377501</v>
+      </c>
+      <c r="N16">
+        <v>1.9209014479670401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>945.023483024082</v>
+      </c>
+      <c r="B17">
+        <v>1964.4287106460699</v>
+      </c>
+      <c r="C17">
+        <v>3.0389928449478498</v>
+      </c>
+      <c r="D17">
+        <v>-5.1164063490025796E-4</v>
+      </c>
+      <c r="E17">
+        <v>2.67000860215835</v>
+      </c>
+      <c r="F17">
+        <v>-3.06178445479001E-3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1.86746535400228E-6</v>
+      </c>
+      <c r="H17">
+        <v>1.32983697210615E-3</v>
+      </c>
+      <c r="I17">
+        <v>2.8491038482606901</v>
+      </c>
+      <c r="J17">
+        <v>1.4509305716755501</v>
+      </c>
+      <c r="K17">
+        <v>0.53299901253176596</v>
+      </c>
+      <c r="L17">
+        <v>0.64384790724597696</v>
+      </c>
+      <c r="M17">
+        <v>9.6449693387300108E-3</v>
+      </c>
+      <c r="N17">
+        <v>1.19239330064757</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1207.2449978214499</v>
+      </c>
+      <c r="B18">
+        <v>2487.00158964709</v>
+      </c>
+      <c r="C18">
+        <v>4.5666658164855001</v>
+      </c>
+      <c r="D18">
+        <v>0.124599690051535</v>
+      </c>
+      <c r="E18">
+        <v>6.0078273798062103</v>
+      </c>
+      <c r="F18">
+        <v>-3.0740379086088301E-3</v>
+      </c>
+      <c r="G18">
+        <v>1.32009526665945E-3</v>
+      </c>
+      <c r="H18">
+        <v>6.1517304021747703E-3</v>
+      </c>
+      <c r="I18">
+        <v>4.49575025200871</v>
+      </c>
+      <c r="J18">
+        <v>1.4497264421841001</v>
+      </c>
+      <c r="K18">
+        <v>4.4952372093105403E-2</v>
+      </c>
+      <c r="L18">
+        <v>6.2515078184284298E-2</v>
+      </c>
+      <c r="M18" s="1">
+        <v>2.1639670810837599E-7</v>
+      </c>
+      <c r="N18">
+        <v>2.1875646082482598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1079.9082601692501</v>
+      </c>
+      <c r="B19">
+        <v>2235.1587774284799</v>
+      </c>
+      <c r="C19">
+        <v>2.2424470464363</v>
+      </c>
+      <c r="D19">
+        <v>-0.26021051621327501</v>
+      </c>
+      <c r="E19">
+        <v>2.4274006401593402</v>
+      </c>
+      <c r="F19">
+        <v>-0.89401681199793603</v>
+      </c>
+      <c r="G19">
+        <v>4.0315417740141501E-3</v>
+      </c>
+      <c r="H19">
+        <v>3.4621371365999398E-3</v>
+      </c>
+      <c r="I19">
+        <v>2.3757948851037498</v>
+      </c>
+      <c r="J19">
+        <v>1.4991237012560801</v>
+      </c>
+      <c r="K19">
+        <v>0.54115596199983396</v>
+      </c>
+      <c r="L19">
+        <v>0.46468536119940002</v>
+      </c>
+      <c r="M19">
+        <v>0.114211607932781</v>
+      </c>
+      <c r="N19">
+        <v>1.0754948109945499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4211.2797954796697</v>
+      </c>
+      <c r="B20">
+        <v>8496.7446098399396</v>
+      </c>
+      <c r="C20">
+        <v>-1.0504748800275101</v>
+      </c>
+      <c r="D20">
+        <v>-2.6495676318065301E-3</v>
+      </c>
+      <c r="E20">
+        <v>3.2698599535742199</v>
+      </c>
+      <c r="F20">
+        <v>1.10246541102226E-3</v>
+      </c>
+      <c r="G20">
+        <v>8.3272930229208605E-4</v>
+      </c>
+      <c r="H20">
+        <v>3.0777357134944101E-3</v>
+      </c>
+      <c r="I20">
+        <v>1.72084574910578</v>
+      </c>
+      <c r="J20">
+        <v>1.1303943957792899</v>
+      </c>
+      <c r="K20">
+        <v>3.4252291260999698E-2</v>
+      </c>
+      <c r="L20">
+        <v>0.58500530616751001</v>
+      </c>
+      <c r="M20">
+        <v>0.183500013307617</v>
+      </c>
+      <c r="N20">
+        <v>5.4053949503366602E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4026.3931914930399</v>
+      </c>
+      <c r="B21">
+        <v>8127.3856561990897</v>
+      </c>
+      <c r="C21">
+        <v>2.6791221766822</v>
+      </c>
+      <c r="D21">
+        <v>-2.2811587835315301E-2</v>
+      </c>
+      <c r="E21">
+        <v>3.5414360880709701</v>
+      </c>
+      <c r="F21">
+        <v>5.35822622645186E-2</v>
+      </c>
+      <c r="G21">
+        <v>3.8270158530538602E-4</v>
+      </c>
+      <c r="H21">
+        <v>4.2603683914831098E-4</v>
+      </c>
+      <c r="I21">
+        <v>1.72286937003079</v>
+      </c>
+      <c r="J21">
+        <v>1.2545307560786101</v>
+      </c>
+      <c r="K21">
+        <v>0.52719768886472296</v>
+      </c>
+      <c r="L21">
+        <v>0.42587918464274199</v>
+      </c>
+      <c r="M21">
+        <v>0.133400047887658</v>
+      </c>
+      <c r="N21">
+        <v>0.124650847408122</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -405,7 +1330,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,6 +1474,42 @@
       <c r="B4">
         <v>1952.07242502949</v>
       </c>
+      <c r="C4">
+        <v>3.2839548809702199</v>
+      </c>
+      <c r="D4">
+        <v>8.0064077971855399E-2</v>
+      </c>
+      <c r="E4">
+        <v>3.5133506282476898</v>
+      </c>
+      <c r="F4">
+        <v>7.15675738719214E-3</v>
+      </c>
+      <c r="G4">
+        <v>1.50942996443982E-3</v>
+      </c>
+      <c r="H4">
+        <v>2.3559076136480798E-3</v>
+      </c>
+      <c r="I4">
+        <v>2.2355209502220101</v>
+      </c>
+      <c r="J4">
+        <v>1.27138742472233</v>
+      </c>
+      <c r="K4">
+        <v>0.48356911284424497</v>
+      </c>
+      <c r="L4">
+        <v>0.51099702331580099</v>
+      </c>
+      <c r="M4" s="1">
+        <v>4.0085787996288502E-7</v>
+      </c>
+      <c r="N4">
+        <v>2.05308604432504</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -557,6 +1518,42 @@
       <c r="B5">
         <v>1754.9256737118801</v>
       </c>
+      <c r="C5">
+        <v>6.1650424552580398</v>
+      </c>
+      <c r="D5">
+        <v>-7.7188187961415494E-2</v>
+      </c>
+      <c r="E5">
+        <v>6.4276299888056503</v>
+      </c>
+      <c r="F5">
+        <v>5.1640942889923297E-2</v>
+      </c>
+      <c r="G5">
+        <v>2.1307071625593699E-2</v>
+      </c>
+      <c r="H5">
+        <v>1.27026859247284E-2</v>
+      </c>
+      <c r="I5">
+        <v>4.5024419206529398</v>
+      </c>
+      <c r="J5">
+        <v>1.45872636245278</v>
+      </c>
+      <c r="K5">
+        <v>0.45071042310091902</v>
+      </c>
+      <c r="L5">
+        <v>0.54699260545056905</v>
+      </c>
+      <c r="M5">
+        <v>1.2219834679485E-2</v>
+      </c>
+      <c r="N5">
+        <v>2.3794801124545701</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -565,6 +1562,42 @@
       <c r="B6">
         <v>2161.72861834881</v>
       </c>
+      <c r="C6">
+        <v>4.2072859566557899</v>
+      </c>
+      <c r="D6">
+        <v>0.112523642914501</v>
+      </c>
+      <c r="E6">
+        <v>3.8884709858273898</v>
+      </c>
+      <c r="F6">
+        <v>2.66016210345884E-2</v>
+      </c>
+      <c r="G6">
+        <v>5.9318814618635504E-4</v>
+      </c>
+      <c r="H6">
+        <v>1.7000177755052499E-3</v>
+      </c>
+      <c r="I6">
+        <v>3.4323561733994299</v>
+      </c>
+      <c r="J6">
+        <v>1.54726252411745</v>
+      </c>
+      <c r="K6">
+        <v>0.48982987824247698</v>
+      </c>
+      <c r="L6">
+        <v>0.65365216327692599</v>
+      </c>
+      <c r="M6">
+        <v>4.0987313915019197E-2</v>
+      </c>
+      <c r="N6">
+        <v>2.8023200075969799</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -573,6 +1606,42 @@
       <c r="B7">
         <v>1714.79166553554</v>
       </c>
+      <c r="C7">
+        <v>4.6949640789473603</v>
+      </c>
+      <c r="D7">
+        <v>1.38914502782012E-2</v>
+      </c>
+      <c r="E7">
+        <v>5.2325255503520802</v>
+      </c>
+      <c r="F7">
+        <v>-4.3007713318753303E-3</v>
+      </c>
+      <c r="G7">
+        <v>4.3003161788155103E-3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>9.2517682290474103E-7</v>
+      </c>
+      <c r="I7">
+        <v>2.02428172703774</v>
+      </c>
+      <c r="J7">
+        <v>1.01793944428028</v>
+      </c>
+      <c r="K7">
+        <v>0.23996845056646901</v>
+      </c>
+      <c r="L7">
+        <v>0.229143654512203</v>
+      </c>
+      <c r="M7">
+        <v>0.21114544931791501</v>
+      </c>
+      <c r="N7">
+        <v>1.1380917635386301</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -581,6 +1650,42 @@
       <c r="B8">
         <v>5222.8015170793296</v>
       </c>
+      <c r="C8">
+        <v>3.0649684714382501</v>
+      </c>
+      <c r="D8">
+        <v>4.1007525842813697E-2</v>
+      </c>
+      <c r="E8">
+        <v>6.5026720123380697</v>
+      </c>
+      <c r="F8">
+        <v>6.4540533226594698E-3</v>
+      </c>
+      <c r="G8">
+        <v>1.12358207900429E-3</v>
+      </c>
+      <c r="H8">
+        <v>7.8815695849482996E-3</v>
+      </c>
+      <c r="I8">
+        <v>2.0289330545002602</v>
+      </c>
+      <c r="J8">
+        <v>1.1246621615372401</v>
+      </c>
+      <c r="K8">
+        <v>0.58044754627749096</v>
+      </c>
+      <c r="L8">
+        <v>0.12759258975700399</v>
+      </c>
+      <c r="M8">
+        <v>6.6700075879983903E-2</v>
+      </c>
+      <c r="N8">
+        <v>1.2400034532145701</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -589,6 +1694,42 @@
       <c r="B9">
         <v>2072.2995793532</v>
       </c>
+      <c r="C9">
+        <v>5.5348899367454996</v>
+      </c>
+      <c r="D9">
+        <v>1.7946505704173301E-2</v>
+      </c>
+      <c r="E9">
+        <v>4.0182045976761298</v>
+      </c>
+      <c r="F9">
+        <v>1.9490021731338899E-2</v>
+      </c>
+      <c r="G9">
+        <v>1.5134004025425999E-2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5.6245850074383499E-5</v>
+      </c>
+      <c r="I9">
+        <v>3.0320167448329398</v>
+      </c>
+      <c r="J9">
+        <v>2.1202278067435101</v>
+      </c>
+      <c r="K9">
+        <v>0.720416358296877</v>
+      </c>
+      <c r="L9">
+        <v>0.95242252732894395</v>
+      </c>
+      <c r="M9">
+        <v>0.200200047648632</v>
+      </c>
+      <c r="N9">
+        <v>2.1098817682088402</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -597,6 +1738,42 @@
       <c r="B10">
         <v>2582.3907714090601</v>
       </c>
+      <c r="C10">
+        <v>0.52480479681923797</v>
+      </c>
+      <c r="D10">
+        <v>-6.5706219748669803E-2</v>
+      </c>
+      <c r="E10">
+        <v>-0.134169928458515</v>
+      </c>
+      <c r="F10">
+        <v>1.2554519925536099E-2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2.5449175537778499E-5</v>
+      </c>
+      <c r="H10">
+        <v>1.5827616373988398E-2</v>
+      </c>
+      <c r="I10">
+        <v>0.695741910659878</v>
+      </c>
+      <c r="J10">
+        <v>1.1632689395815301</v>
+      </c>
+      <c r="K10">
+        <v>0.37422296857030002</v>
+      </c>
+      <c r="L10">
+        <v>0.42044680217961899</v>
+      </c>
+      <c r="M10">
+        <v>6.3369008374252597E-3</v>
+      </c>
+      <c r="N10">
+        <v>0.25588884450487798</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -605,6 +1782,42 @@
       <c r="B11">
         <v>2023.12585639298</v>
       </c>
+      <c r="C11">
+        <v>2.52067213337995</v>
+      </c>
+      <c r="D11">
+        <v>-2.96030310680851E-3</v>
+      </c>
+      <c r="E11">
+        <v>2.61936799779751</v>
+      </c>
+      <c r="F11">
+        <v>3.6622240033457203E-2</v>
+      </c>
+      <c r="G11">
+        <v>1.17836160698982E-2</v>
+      </c>
+      <c r="H11">
+        <v>1.7106306414715E-2</v>
+      </c>
+      <c r="I11">
+        <v>4.0613744961721396</v>
+      </c>
+      <c r="J11">
+        <v>1.8340126390934099</v>
+      </c>
+      <c r="K11">
+        <v>0.89336294990579701</v>
+      </c>
+      <c r="L11">
+        <v>0.918069939046121</v>
+      </c>
+      <c r="M11">
+        <v>1.1121482110647099E-2</v>
+      </c>
+      <c r="N11">
+        <v>1.5722610353316699</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -613,6 +1826,42 @@
       <c r="B12">
         <v>5941.6572143635303</v>
       </c>
+      <c r="C12">
+        <v>5.3740242488850898</v>
+      </c>
+      <c r="D12">
+        <v>2.7492456655690899E-2</v>
+      </c>
+      <c r="E12">
+        <v>4.5244498978779699</v>
+      </c>
+      <c r="F12">
+        <v>8.4965655273957792E-3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>8.3947985137751195E-6</v>
+      </c>
+      <c r="H12">
+        <v>1.7656831375938899E-3</v>
+      </c>
+      <c r="I12">
+        <v>2.3255878084720201</v>
+      </c>
+      <c r="J12">
+        <v>1.1390547475018999</v>
+      </c>
+      <c r="K12">
+        <v>0.36838949771568802</v>
+      </c>
+      <c r="L12">
+        <v>0.449523513296535</v>
+      </c>
+      <c r="M12">
+        <v>5.7763522071449601E-2</v>
+      </c>
+      <c r="N12">
+        <v>0.43766708401175602</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -621,6 +1870,42 @@
       <c r="B13">
         <v>1247.3789995651</v>
       </c>
+      <c r="C13">
+        <v>4.2061574304448701</v>
+      </c>
+      <c r="D13">
+        <v>9.5158075481890502E-4</v>
+      </c>
+      <c r="E13">
+        <v>4.1689271202309204</v>
+      </c>
+      <c r="F13">
+        <v>-0.127984860710532</v>
+      </c>
+      <c r="G13">
+        <v>1.81324819865183E-3</v>
+      </c>
+      <c r="H13">
+        <v>7.7707050278070199E-3</v>
+      </c>
+      <c r="I13">
+        <v>3.4067319593462901</v>
+      </c>
+      <c r="J13">
+        <v>1.5688497745652701</v>
+      </c>
+      <c r="K13">
+        <v>0.76569249557074504</v>
+      </c>
+      <c r="L13">
+        <v>0.675177655632899</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1.5016756286703E-6</v>
+      </c>
+      <c r="N13">
+        <v>9.3031385775283901E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -629,12 +1914,84 @@
       <c r="B14">
         <v>4150.8168230111996</v>
       </c>
+      <c r="C14">
+        <v>0.186286441286906</v>
+      </c>
+      <c r="D14">
+        <v>-2.88023937645683E-2</v>
+      </c>
+      <c r="E14">
+        <v>-0.41178665640976497</v>
+      </c>
+      <c r="F14">
+        <v>-1.23379206363041E-2</v>
+      </c>
+      <c r="G14">
+        <v>1.2683265516114099E-3</v>
+      </c>
+      <c r="H14">
+        <v>1.30369348966422E-2</v>
+      </c>
+      <c r="I14">
+        <v>1.1998353944946401</v>
+      </c>
+      <c r="J14">
+        <v>1.7921826324601799</v>
+      </c>
+      <c r="K14">
+        <v>0.65555112236733803</v>
+      </c>
+      <c r="L14">
+        <v>0.70734366892422396</v>
+      </c>
+      <c r="M14">
+        <v>0.40030465985623098</v>
+      </c>
+      <c r="N14">
+        <v>0.13714328988852401</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
       <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
         <v>0</v>
       </c>
     </row>
@@ -645,45 +2002,261 @@
       <c r="B16">
         <v>3620.1612762393302</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>0.630301097792897</v>
+      </c>
+      <c r="D16">
+        <v>0.11422073416985699</v>
+      </c>
+      <c r="E16">
+        <v>1.6067936223053301</v>
+      </c>
+      <c r="F16">
+        <v>-0.13020401844450699</v>
+      </c>
+      <c r="G16">
+        <v>1.1469914907071899E-3</v>
+      </c>
+      <c r="H16" s="1">
+        <v>4.3916234324910499E-8</v>
+      </c>
+      <c r="I16">
+        <v>1.4495735700366801</v>
+      </c>
+      <c r="J16">
+        <v>2.7635946912929401</v>
+      </c>
+      <c r="K16">
+        <v>0.81852677557662601</v>
+      </c>
+      <c r="L16">
+        <v>0.395012528399033</v>
+      </c>
+      <c r="M16">
+        <v>0.13340008197377501</v>
+      </c>
+      <c r="N16">
+        <v>1.9209014479670401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>945.023483024082</v>
       </c>
       <c r="B17">
         <v>1964.4287106460699</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>3.0389928449478498</v>
+      </c>
+      <c r="D17">
+        <v>-5.1164063490025796E-4</v>
+      </c>
+      <c r="E17">
+        <v>2.67000860215835</v>
+      </c>
+      <c r="F17">
+        <v>-3.06178445479001E-3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1.86746535400228E-6</v>
+      </c>
+      <c r="H17">
+        <v>1.32983697210615E-3</v>
+      </c>
+      <c r="I17">
+        <v>2.8491038482606901</v>
+      </c>
+      <c r="J17">
+        <v>1.4509305716755501</v>
+      </c>
+      <c r="K17">
+        <v>0.53299901253176596</v>
+      </c>
+      <c r="L17">
+        <v>0.64384790724597696</v>
+      </c>
+      <c r="M17">
+        <v>9.6449693387300108E-3</v>
+      </c>
+      <c r="N17">
+        <v>1.19239330064757</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1207.2449978214499</v>
       </c>
       <c r="B18">
         <v>2487.00158964709</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>4.5666658164855001</v>
+      </c>
+      <c r="D18">
+        <v>0.124599690051535</v>
+      </c>
+      <c r="E18">
+        <v>6.0078273798062103</v>
+      </c>
+      <c r="F18">
+        <v>-3.0740379086088301E-3</v>
+      </c>
+      <c r="G18">
+        <v>1.32009526665945E-3</v>
+      </c>
+      <c r="H18">
+        <v>6.1517304021747703E-3</v>
+      </c>
+      <c r="I18">
+        <v>4.49575025200871</v>
+      </c>
+      <c r="J18">
+        <v>1.4497264421841001</v>
+      </c>
+      <c r="K18">
+        <v>4.4952372093105403E-2</v>
+      </c>
+      <c r="L18">
+        <v>6.2515078184284298E-2</v>
+      </c>
+      <c r="M18" s="1">
+        <v>2.1639670810837599E-7</v>
+      </c>
+      <c r="N18">
+        <v>2.1875646082482598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>928.25214531905999</v>
       </c>
       <c r="B19">
         <v>1931.84654772811</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>2.93998585957329</v>
+      </c>
+      <c r="D19">
+        <v>0.107850754729407</v>
+      </c>
+      <c r="E19">
+        <v>3.1062268625214</v>
+      </c>
+      <c r="F19">
+        <v>4.0468432456845704E-3</v>
+      </c>
+      <c r="G19">
+        <v>2.0001632636670499E-2</v>
+      </c>
+      <c r="H19">
+        <v>1.02301234753128E-3</v>
+      </c>
+      <c r="I19">
+        <v>3.3026656506885401</v>
+      </c>
+      <c r="J19">
+        <v>1.5469658354332501</v>
+      </c>
+      <c r="K19">
+        <v>0.68648238112384297</v>
+      </c>
+      <c r="L19">
+        <v>0.62506172758121104</v>
+      </c>
+      <c r="M19">
+        <v>5.7810462714287601E-2</v>
+      </c>
+      <c r="N19">
+        <v>1.40184810667131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1555.3788825343099</v>
       </c>
       <c r="B20">
         <v>3184.94278394921</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>0.76636571456347302</v>
+      </c>
+      <c r="D20">
+        <v>-1.6568602501287801E-2</v>
+      </c>
+      <c r="E20">
+        <v>0.84982575147285699</v>
+      </c>
+      <c r="F20">
+        <v>4.8849313107440201E-2</v>
+      </c>
+      <c r="G20">
+        <v>8.5276927159460495E-4</v>
+      </c>
+      <c r="H20">
+        <v>4.6814086025371897E-2</v>
+      </c>
+      <c r="I20">
+        <v>1.0926186038415999</v>
+      </c>
+      <c r="J20">
+        <v>0.69634003314043802</v>
+      </c>
+      <c r="K20">
+        <v>0.418016672433698</v>
+      </c>
+      <c r="L20">
+        <v>0.499979804789489</v>
+      </c>
+      <c r="M20">
+        <v>6.6700015481673994E-2</v>
+      </c>
+      <c r="N20">
+        <v>5.1136266581535098E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2447.1248025319301</v>
       </c>
       <c r="B21">
         <v>4968.84887827688</v>
+      </c>
+      <c r="C21">
+        <v>0.398897706474515</v>
+      </c>
+      <c r="D21">
+        <v>2.0371310099713699E-2</v>
+      </c>
+      <c r="E21">
+        <v>0.95100360660000305</v>
+      </c>
+      <c r="F21">
+        <v>2.19687064355788E-2</v>
+      </c>
+      <c r="G21">
+        <v>1.84027530316507E-2</v>
+      </c>
+      <c r="H21">
+        <v>1.55247734203156E-2</v>
+      </c>
+      <c r="I21">
+        <v>0.76037671201228596</v>
+      </c>
+      <c r="J21">
+        <v>1.44220542744417</v>
+      </c>
+      <c r="K21">
+        <v>0.82713657318668699</v>
+      </c>
+      <c r="L21">
+        <v>0.83075518982077601</v>
+      </c>
+      <c r="M21">
+        <v>3.34000799871206E-2</v>
+      </c>
+      <c r="N21">
+        <v>0.159345521642169</v>
       </c>
     </row>
   </sheetData>

--- a/models/code/criterionVar/Criterionx/mixFits.xlsx
+++ b/models/code/criterionVar/Criterionx/mixFits.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="11100" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="11100" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="15">
   <si>
     <t>[]</t>
   </si>
@@ -1329,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2262,4 +2263,943 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>639.61370902615397</v>
+      </c>
+      <c r="B2">
+        <v>1344.32681826208</v>
+      </c>
+      <c r="C2">
+        <v>0.210792512144517</v>
+      </c>
+      <c r="D2">
+        <v>-1.1572934724137899E-3</v>
+      </c>
+      <c r="E2">
+        <v>0.44407205632365998</v>
+      </c>
+      <c r="F2">
+        <v>-0.139709682584895</v>
+      </c>
+      <c r="G2">
+        <v>5.5798803664123698E-3</v>
+      </c>
+      <c r="H2">
+        <v>5.6760642747758503E-3</v>
+      </c>
+      <c r="I2">
+        <v>0.69301255265221096</v>
+      </c>
+      <c r="J2">
+        <v>1.4607299288892299</v>
+      </c>
+      <c r="K2">
+        <v>0.73127438615587903</v>
+      </c>
+      <c r="L2">
+        <v>0.62394279100482397</v>
+      </c>
+      <c r="M2">
+        <v>0.216800014730163</v>
+      </c>
+      <c r="N2">
+        <v>9.8941433555478006E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1077.49696129931</v>
+      </c>
+      <c r="B3">
+        <v>2230.5592344378401</v>
+      </c>
+      <c r="C3">
+        <v>2.5754772605487002</v>
+      </c>
+      <c r="D3">
+        <v>-7.32102945173203E-3</v>
+      </c>
+      <c r="E3">
+        <v>2.5481430083267802</v>
+      </c>
+      <c r="F3">
+        <v>2.66464637880857E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.4765617633903501E-7</v>
+      </c>
+      <c r="H3">
+        <v>1.93417883518374E-3</v>
+      </c>
+      <c r="I3">
+        <v>2.8757485537549998</v>
+      </c>
+      <c r="J3">
+        <v>1.51732023432781</v>
+      </c>
+      <c r="K3">
+        <v>0.73744018144010404</v>
+      </c>
+      <c r="L3">
+        <v>0.84546308557908401</v>
+      </c>
+      <c r="M3">
+        <v>0.158796410127682</v>
+      </c>
+      <c r="N3">
+        <v>1.86860520290021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>938.82099941161596</v>
+      </c>
+      <c r="B4">
+        <v>1952.07242502949</v>
+      </c>
+      <c r="C4">
+        <v>3.2839548809702199</v>
+      </c>
+      <c r="D4">
+        <v>8.0064077971855399E-2</v>
+      </c>
+      <c r="E4">
+        <v>3.5133506282476898</v>
+      </c>
+      <c r="F4">
+        <v>7.15675738719214E-3</v>
+      </c>
+      <c r="G4">
+        <v>1.50942996443982E-3</v>
+      </c>
+      <c r="H4">
+        <v>2.3559076136480798E-3</v>
+      </c>
+      <c r="I4">
+        <v>2.2355209502220101</v>
+      </c>
+      <c r="J4">
+        <v>1.27138742472233</v>
+      </c>
+      <c r="K4">
+        <v>0.48356911284424497</v>
+      </c>
+      <c r="L4">
+        <v>0.51099702331580099</v>
+      </c>
+      <c r="M4" s="1">
+        <v>4.0085787996288502E-7</v>
+      </c>
+      <c r="N4">
+        <v>2.05308604432504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>839.848259153703</v>
+      </c>
+      <c r="B5">
+        <v>1754.9256737118801</v>
+      </c>
+      <c r="C5">
+        <v>6.1650424552580398</v>
+      </c>
+      <c r="D5">
+        <v>-7.7188187961415494E-2</v>
+      </c>
+      <c r="E5">
+        <v>6.4276299888056503</v>
+      </c>
+      <c r="F5">
+        <v>5.1640942889923297E-2</v>
+      </c>
+      <c r="G5">
+        <v>2.1307071625593699E-2</v>
+      </c>
+      <c r="H5">
+        <v>1.27026859247284E-2</v>
+      </c>
+      <c r="I5">
+        <v>4.5024419206529398</v>
+      </c>
+      <c r="J5">
+        <v>1.45872636245278</v>
+      </c>
+      <c r="K5">
+        <v>0.45071042310091902</v>
+      </c>
+      <c r="L5">
+        <v>0.54699260545056905</v>
+      </c>
+      <c r="M5">
+        <v>1.2219834679485E-2</v>
+      </c>
+      <c r="N5">
+        <v>2.3794801124545701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1043.1707086930301</v>
+      </c>
+      <c r="B6">
+        <v>2161.72861834881</v>
+      </c>
+      <c r="C6">
+        <v>4.2072859566557899</v>
+      </c>
+      <c r="D6">
+        <v>0.112523642914501</v>
+      </c>
+      <c r="E6">
+        <v>3.8884709858273898</v>
+      </c>
+      <c r="F6">
+        <v>2.66016210345884E-2</v>
+      </c>
+      <c r="G6">
+        <v>5.9318814618635504E-4</v>
+      </c>
+      <c r="H6">
+        <v>1.7000177755052499E-3</v>
+      </c>
+      <c r="I6">
+        <v>3.4323561733994299</v>
+      </c>
+      <c r="J6">
+        <v>1.54726252411745</v>
+      </c>
+      <c r="K6">
+        <v>0.48982987824247698</v>
+      </c>
+      <c r="L6">
+        <v>0.65365216327692599</v>
+      </c>
+      <c r="M6">
+        <v>4.0987313915019197E-2</v>
+      </c>
+      <c r="N6">
+        <v>2.8023200075969799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>959.91990755802897</v>
+      </c>
+      <c r="B7">
+        <v>1994.6762501984999</v>
+      </c>
+      <c r="C7">
+        <v>1.58579077042704</v>
+      </c>
+      <c r="D7">
+        <v>3.6441308889798199E-2</v>
+      </c>
+      <c r="E7">
+        <v>1.4443084464476801</v>
+      </c>
+      <c r="F7">
+        <v>-3.6778074958387599E-2</v>
+      </c>
+      <c r="G7">
+        <v>1.5388524006672901E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.60356386288488E-6</v>
+      </c>
+      <c r="I7">
+        <v>0.97131456888970102</v>
+      </c>
+      <c r="J7">
+        <v>1.712422187566</v>
+      </c>
+      <c r="K7">
+        <v>0.67767582989729502</v>
+      </c>
+      <c r="L7">
+        <v>0.89831199740325496</v>
+      </c>
+      <c r="M7">
+        <v>0.15010010605166799</v>
+      </c>
+      <c r="N7">
+        <v>0.50996546902919204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2573.9825409984401</v>
+      </c>
+      <c r="B8">
+        <v>5222.8015170793296</v>
+      </c>
+      <c r="C8">
+        <v>3.0649684714382501</v>
+      </c>
+      <c r="D8">
+        <v>4.1007525842813697E-2</v>
+      </c>
+      <c r="E8">
+        <v>6.5026720123380697</v>
+      </c>
+      <c r="F8">
+        <v>6.4540533226594698E-3</v>
+      </c>
+      <c r="G8">
+        <v>1.12358207900429E-3</v>
+      </c>
+      <c r="H8">
+        <v>7.8815695849482996E-3</v>
+      </c>
+      <c r="I8">
+        <v>2.0289330545002602</v>
+      </c>
+      <c r="J8">
+        <v>1.1246621615372401</v>
+      </c>
+      <c r="K8">
+        <v>0.58044754627749096</v>
+      </c>
+      <c r="L8">
+        <v>0.12759258975700399</v>
+      </c>
+      <c r="M8">
+        <v>6.6700075879983903E-2</v>
+      </c>
+      <c r="N8">
+        <v>1.2400034532145701</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>998.37819366796396</v>
+      </c>
+      <c r="B9">
+        <v>2072.2995793532</v>
+      </c>
+      <c r="C9">
+        <v>5.5348899367454996</v>
+      </c>
+      <c r="D9">
+        <v>1.7946505704173301E-2</v>
+      </c>
+      <c r="E9">
+        <v>4.0182045976761298</v>
+      </c>
+      <c r="F9">
+        <v>1.9490021731338899E-2</v>
+      </c>
+      <c r="G9">
+        <v>1.5134004025425999E-2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5.6245850074383499E-5</v>
+      </c>
+      <c r="I9">
+        <v>3.0320167448329398</v>
+      </c>
+      <c r="J9">
+        <v>2.1202278067435101</v>
+      </c>
+      <c r="K9">
+        <v>0.720416358296877</v>
+      </c>
+      <c r="L9">
+        <v>0.95242252732894395</v>
+      </c>
+      <c r="M9">
+        <v>0.200200047648632</v>
+      </c>
+      <c r="N9">
+        <v>2.1098817682088402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1253.4905807381001</v>
+      </c>
+      <c r="B10">
+        <v>2582.3907714090601</v>
+      </c>
+      <c r="C10">
+        <v>0.52480479681923797</v>
+      </c>
+      <c r="D10">
+        <v>-6.5706219748669803E-2</v>
+      </c>
+      <c r="E10">
+        <v>-0.134169928458515</v>
+      </c>
+      <c r="F10">
+        <v>1.2554519925536099E-2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2.5449175537778499E-5</v>
+      </c>
+      <c r="H10">
+        <v>1.5827616373988398E-2</v>
+      </c>
+      <c r="I10">
+        <v>0.695741910659878</v>
+      </c>
+      <c r="J10">
+        <v>1.1632689395815301</v>
+      </c>
+      <c r="K10">
+        <v>0.37422296857030002</v>
+      </c>
+      <c r="L10">
+        <v>0.42044680217961899</v>
+      </c>
+      <c r="M10">
+        <v>6.3369008374252597E-3</v>
+      </c>
+      <c r="N10">
+        <v>0.25588884450487798</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>973.79133218785</v>
+      </c>
+      <c r="B11">
+        <v>2023.12585639298</v>
+      </c>
+      <c r="C11">
+        <v>2.52067213337995</v>
+      </c>
+      <c r="D11">
+        <v>-2.96030310680851E-3</v>
+      </c>
+      <c r="E11">
+        <v>2.61936799779751</v>
+      </c>
+      <c r="F11">
+        <v>3.6622240033457203E-2</v>
+      </c>
+      <c r="G11">
+        <v>1.17836160698982E-2</v>
+      </c>
+      <c r="H11">
+        <v>1.7106306414715E-2</v>
+      </c>
+      <c r="I11">
+        <v>4.0613744961721396</v>
+      </c>
+      <c r="J11">
+        <v>1.8340126390934099</v>
+      </c>
+      <c r="K11">
+        <v>0.89336294990579701</v>
+      </c>
+      <c r="L11">
+        <v>0.918069939046121</v>
+      </c>
+      <c r="M11">
+        <v>1.1121482110647099E-2</v>
+      </c>
+      <c r="N11">
+        <v>1.5722610353316699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1104.1412535330701</v>
+      </c>
+      <c r="B12">
+        <v>2283.30535366412</v>
+      </c>
+      <c r="C12">
+        <v>1.70867071888851</v>
+      </c>
+      <c r="D12">
+        <v>0.61553213232392201</v>
+      </c>
+      <c r="E12">
+        <v>1.2276822630745901</v>
+      </c>
+      <c r="F12">
+        <v>0.11988942439259601</v>
+      </c>
+      <c r="G12">
+        <v>2.8641037517781499E-2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5.6913244494273003E-7</v>
+      </c>
+      <c r="I12">
+        <v>1.0809991171694899</v>
+      </c>
+      <c r="J12">
+        <v>0.77458894143073398</v>
+      </c>
+      <c r="K12">
+        <v>0.32270564569626098</v>
+      </c>
+      <c r="L12">
+        <v>0.55655071518265298</v>
+      </c>
+      <c r="M12">
+        <v>0.18350001087621701</v>
+      </c>
+      <c r="N12">
+        <v>0.105673948855949</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>586.02963884650103</v>
+      </c>
+      <c r="B13">
+        <v>1247.3789995651</v>
+      </c>
+      <c r="C13">
+        <v>4.2061574304448701</v>
+      </c>
+      <c r="D13">
+        <v>9.5158075481890502E-4</v>
+      </c>
+      <c r="E13">
+        <v>4.1689271202309204</v>
+      </c>
+      <c r="F13">
+        <v>-0.127984860710532</v>
+      </c>
+      <c r="G13">
+        <v>1.81324819865183E-3</v>
+      </c>
+      <c r="H13">
+        <v>7.7707050278070199E-3</v>
+      </c>
+      <c r="I13">
+        <v>3.4067319593462901</v>
+      </c>
+      <c r="J13">
+        <v>1.5688497745652701</v>
+      </c>
+      <c r="K13">
+        <v>0.76569249557074504</v>
+      </c>
+      <c r="L13">
+        <v>0.675177655632899</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1.5016756286703E-6</v>
+      </c>
+      <c r="N13">
+        <v>9.3031385775283901E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1709.0641881717099</v>
+      </c>
+      <c r="B14">
+        <v>3492.1133905941902</v>
+      </c>
+      <c r="C14">
+        <v>-2.95909859952268E-2</v>
+      </c>
+      <c r="D14">
+        <v>-0.46005279027944501</v>
+      </c>
+      <c r="E14">
+        <v>-2.3279950075175498E-2</v>
+      </c>
+      <c r="F14">
+        <v>6.2452440913506102E-2</v>
+      </c>
+      <c r="G14">
+        <v>2.8561578598472401E-2</v>
+      </c>
+      <c r="H14">
+        <v>7.2741194511463598E-3</v>
+      </c>
+      <c r="I14">
+        <v>1.21750172036005</v>
+      </c>
+      <c r="J14">
+        <v>0.65383838122209803</v>
+      </c>
+      <c r="K14">
+        <v>0.607180911263695</v>
+      </c>
+      <c r="L14">
+        <v>0.39311266493414099</v>
+      </c>
+      <c r="M14">
+        <v>0.216800001372148</v>
+      </c>
+      <c r="N14">
+        <v>1.5415122695889401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1772.54613786915</v>
+      </c>
+      <c r="B16">
+        <v>3620.1612762393302</v>
+      </c>
+      <c r="C16">
+        <v>0.630301097792897</v>
+      </c>
+      <c r="D16">
+        <v>0.11422073416985699</v>
+      </c>
+      <c r="E16">
+        <v>1.6067936223053301</v>
+      </c>
+      <c r="F16">
+        <v>-0.13020401844450699</v>
+      </c>
+      <c r="G16">
+        <v>1.1469914907071899E-3</v>
+      </c>
+      <c r="H16" s="1">
+        <v>4.3916234324910499E-8</v>
+      </c>
+      <c r="I16">
+        <v>1.4495735700366801</v>
+      </c>
+      <c r="J16">
+        <v>2.7635946912929401</v>
+      </c>
+      <c r="K16">
+        <v>0.81852677557662601</v>
+      </c>
+      <c r="L16">
+        <v>0.395012528399033</v>
+      </c>
+      <c r="M16">
+        <v>0.13340008197377501</v>
+      </c>
+      <c r="N16">
+        <v>1.9209014479670401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>945.023483024082</v>
+      </c>
+      <c r="B17">
+        <v>1964.4287106460699</v>
+      </c>
+      <c r="C17">
+        <v>3.0389928449478498</v>
+      </c>
+      <c r="D17">
+        <v>-5.1164063490025796E-4</v>
+      </c>
+      <c r="E17">
+        <v>2.67000860215835</v>
+      </c>
+      <c r="F17">
+        <v>-3.06178445479001E-3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1.86746535400228E-6</v>
+      </c>
+      <c r="H17">
+        <v>1.32983697210615E-3</v>
+      </c>
+      <c r="I17">
+        <v>2.8491038482606901</v>
+      </c>
+      <c r="J17">
+        <v>1.4509305716755501</v>
+      </c>
+      <c r="K17">
+        <v>0.53299901253176596</v>
+      </c>
+      <c r="L17">
+        <v>0.64384790724597696</v>
+      </c>
+      <c r="M17">
+        <v>9.6449693387300108E-3</v>
+      </c>
+      <c r="N17">
+        <v>1.19239330064757</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1207.2449978214499</v>
+      </c>
+      <c r="B18">
+        <v>2487.00158964709</v>
+      </c>
+      <c r="C18">
+        <v>4.5666658164855001</v>
+      </c>
+      <c r="D18">
+        <v>0.124599690051535</v>
+      </c>
+      <c r="E18">
+        <v>6.0078273798062103</v>
+      </c>
+      <c r="F18">
+        <v>-3.0740379086088301E-3</v>
+      </c>
+      <c r="G18">
+        <v>1.32009526665945E-3</v>
+      </c>
+      <c r="H18">
+        <v>6.1517304021747703E-3</v>
+      </c>
+      <c r="I18">
+        <v>4.49575025200871</v>
+      </c>
+      <c r="J18">
+        <v>1.4497264421841001</v>
+      </c>
+      <c r="K18">
+        <v>4.4952372093105403E-2</v>
+      </c>
+      <c r="L18">
+        <v>6.2515078184284298E-2</v>
+      </c>
+      <c r="M18" s="1">
+        <v>2.1639670810837599E-7</v>
+      </c>
+      <c r="N18">
+        <v>2.1875646082482598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>928.25214531905999</v>
+      </c>
+      <c r="B19">
+        <v>1931.84654772811</v>
+      </c>
+      <c r="C19">
+        <v>2.93998585957329</v>
+      </c>
+      <c r="D19">
+        <v>0.107850754729407</v>
+      </c>
+      <c r="E19">
+        <v>3.1062268625214</v>
+      </c>
+      <c r="F19">
+        <v>4.0468432456845704E-3</v>
+      </c>
+      <c r="G19">
+        <v>2.0001632636670499E-2</v>
+      </c>
+      <c r="H19">
+        <v>1.02301234753128E-3</v>
+      </c>
+      <c r="I19">
+        <v>3.3026656506885401</v>
+      </c>
+      <c r="J19">
+        <v>1.5469658354332501</v>
+      </c>
+      <c r="K19">
+        <v>0.68648238112384297</v>
+      </c>
+      <c r="L19">
+        <v>0.62506172758121104</v>
+      </c>
+      <c r="M19">
+        <v>5.7810462714287601E-2</v>
+      </c>
+      <c r="N19">
+        <v>1.40184810667131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1555.3788825343099</v>
+      </c>
+      <c r="B20">
+        <v>3184.94278394921</v>
+      </c>
+      <c r="C20">
+        <v>0.76636571456347302</v>
+      </c>
+      <c r="D20">
+        <v>-1.6568602501287801E-2</v>
+      </c>
+      <c r="E20">
+        <v>0.84982575147285699</v>
+      </c>
+      <c r="F20">
+        <v>4.8849313107440201E-2</v>
+      </c>
+      <c r="G20">
+        <v>8.5276927159460495E-4</v>
+      </c>
+      <c r="H20">
+        <v>4.6814086025371897E-2</v>
+      </c>
+      <c r="I20">
+        <v>1.0926186038415999</v>
+      </c>
+      <c r="J20">
+        <v>0.69634003314043802</v>
+      </c>
+      <c r="K20">
+        <v>0.418016672433698</v>
+      </c>
+      <c r="L20">
+        <v>0.499979804789489</v>
+      </c>
+      <c r="M20">
+        <v>6.6700015481673994E-2</v>
+      </c>
+      <c r="N20">
+        <v>5.1136266581535098E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1818.48160144283</v>
+      </c>
+      <c r="B21">
+        <v>3711.5624760986798</v>
+      </c>
+      <c r="C21">
+        <v>1.8625084392083699</v>
+      </c>
+      <c r="D21">
+        <v>0.72997394825337703</v>
+      </c>
+      <c r="E21">
+        <v>-0.15381318366969801</v>
+      </c>
+      <c r="F21">
+        <v>1.28152726822629E-2</v>
+      </c>
+      <c r="G21">
+        <v>7.4071945912415203E-4</v>
+      </c>
+      <c r="H21">
+        <v>3.3295285167625698E-3</v>
+      </c>
+      <c r="I21">
+        <v>1.8213153035768299</v>
+      </c>
+      <c r="J21">
+        <v>0.68176426314778005</v>
+      </c>
+      <c r="K21">
+        <v>0.345887605578859</v>
+      </c>
+      <c r="L21">
+        <v>0.169696213603029</v>
+      </c>
+      <c r="M21">
+        <v>0.23350001606899801</v>
+      </c>
+      <c r="N21">
+        <v>0.56217056079619199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/models/code/criterionVar/Criterionx/mixFits.xlsx
+++ b/models/code/criterionVar/Criterionx/mixFits.xlsx
@@ -1,32 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasonz1\Documents\GitHub\sourcemem\models\code\criterionVar\Criterionx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Documents\GitHub\sourcemem\models\code\criterionVar\Criterionx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54188A60-E65B-4BF6-B63A-C1D797A7A680}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="11100" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="15">
   <si>
     <t>[]</t>
   </si>
@@ -76,7 +83,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="172" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -106,9 +116,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,16 +404,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -441,7 +457,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>639.61370902615397</v>
       </c>
@@ -485,7 +501,7 @@
         <v>9.8941433555478006E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1230.7608306434099</v>
       </c>
@@ -529,7 +545,7 @@
         <v>8.9843587905413303E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>938.82099941161596</v>
       </c>
@@ -573,7 +589,7 @@
         <v>2.05308604432504</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>839.848259153703</v>
       </c>
@@ -617,7 +633,7 @@
         <v>2.3794801124545701</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1064.55632826135</v>
       </c>
@@ -661,7 +677,7 @@
         <v>0.38243660096120102</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>820.26624802927302</v>
       </c>
@@ -705,7 +721,7 @@
         <v>1.1380917635386301</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1731.5751630929601</v>
       </c>
@@ -749,7 +765,7 @@
         <v>1.3560292873550099</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>847.72014057394904</v>
       </c>
@@ -793,7 +809,7 @@
         <v>7.0790811617267899E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1838.6124918938101</v>
       </c>
@@ -837,7 +853,7 @@
         <v>0.26662750675348901</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>973.79133218785</v>
       </c>
@@ -881,7 +897,7 @@
         <v>1.5722610353316699</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2933.3171838827702</v>
       </c>
@@ -925,7 +941,7 @@
         <v>0.43766708401175602</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>586.02963884650103</v>
       </c>
@@ -969,7 +985,7 @@
         <v>9.3031385775283901E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1640.8025173757801</v>
       </c>
@@ -1013,7 +1029,7 @@
         <v>2.8069504833991501</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1057,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1772.54613786915</v>
       </c>
@@ -1101,7 +1117,7 @@
         <v>1.9209014479670401</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>945.023483024082</v>
       </c>
@@ -1145,7 +1161,7 @@
         <v>1.19239330064757</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1207.2449978214499</v>
       </c>
@@ -1189,7 +1205,7 @@
         <v>2.1875646082482598</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1079.9082601692501</v>
       </c>
@@ -1233,7 +1249,7 @@
         <v>1.0754948109945499</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>4211.2797954796697</v>
       </c>
@@ -1277,7 +1293,7 @@
         <v>5.4053949503366602E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>4026.3931914930399</v>
       </c>
@@ -1327,16 +1343,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1380,7 +1396,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>639.61370902615397</v>
       </c>
@@ -1424,7 +1440,7 @@
         <v>9.8941433555478006E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1077.49696129931</v>
       </c>
@@ -1468,7 +1484,7 @@
         <v>1.86860520290021</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>938.82099941161596</v>
       </c>
@@ -1512,7 +1528,7 @@
         <v>2.05308604432504</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>839.848259153703</v>
       </c>
@@ -1556,7 +1572,7 @@
         <v>2.3794801124545701</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1043.1707086930301</v>
       </c>
@@ -1600,7 +1616,7 @@
         <v>2.8023200075969799</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>820.26624802927302</v>
       </c>
@@ -1644,7 +1660,7 @@
         <v>1.1380917635386301</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2573.9825409984401</v>
       </c>
@@ -1688,7 +1704,7 @@
         <v>1.2400034532145701</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>998.37819366796396</v>
       </c>
@@ -1732,7 +1748,7 @@
         <v>2.1098817682088402</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1253.4905807381001</v>
       </c>
@@ -1776,7 +1792,7 @@
         <v>0.25588884450487798</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>973.79133218785</v>
       </c>
@@ -1820,7 +1836,7 @@
         <v>1.5722610353316699</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2933.3171838827702</v>
       </c>
@@ -1864,7 +1880,7 @@
         <v>0.43766708401175602</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>586.02963884650103</v>
       </c>
@@ -1908,7 +1924,7 @@
         <v>9.3031385775283901E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2038.4159043802099</v>
       </c>
@@ -1952,7 +1968,7 @@
         <v>0.13714328988852401</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1996,7 +2012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1772.54613786915</v>
       </c>
@@ -2040,7 +2056,7 @@
         <v>1.9209014479670401</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>945.023483024082</v>
       </c>
@@ -2084,7 +2100,7 @@
         <v>1.19239330064757</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1207.2449978214499</v>
       </c>
@@ -2128,7 +2144,7 @@
         <v>2.1875646082482598</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>928.25214531905999</v>
       </c>
@@ -2172,7 +2188,7 @@
         <v>1.40184810667131</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1555.3788825343099</v>
       </c>
@@ -2216,7 +2232,7 @@
         <v>5.1136266581535098E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2447.1248025319301</v>
       </c>
@@ -2266,16 +2282,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="14" width="13.265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2319,7 +2342,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>639.61370902615397</v>
       </c>
@@ -2363,7 +2386,7 @@
         <v>9.8941433555478006E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1077.49696129931</v>
       </c>
@@ -2407,7 +2430,7 @@
         <v>1.86860520290021</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>938.82099941161596</v>
       </c>
@@ -2451,7 +2474,7 @@
         <v>2.05308604432504</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>839.848259153703</v>
       </c>
@@ -2495,7 +2518,7 @@
         <v>2.3794801124545701</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1043.1707086930301</v>
       </c>
@@ -2539,7 +2562,7 @@
         <v>2.8023200075969799</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>959.91990755802897</v>
       </c>
@@ -2583,7 +2606,7 @@
         <v>0.50996546902919204</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2573.9825409984401</v>
       </c>
@@ -2627,7 +2650,7 @@
         <v>1.2400034532145701</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>998.37819366796396</v>
       </c>
@@ -2671,7 +2694,7 @@
         <v>2.1098817682088402</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1253.4905807381001</v>
       </c>
@@ -2715,7 +2738,7 @@
         <v>0.25588884450487798</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>973.79133218785</v>
       </c>
@@ -2759,7 +2782,7 @@
         <v>1.5722610353316699</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1104.1412535330701</v>
       </c>
@@ -2803,7 +2826,7 @@
         <v>0.105673948855949</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>586.02963884650103</v>
       </c>
@@ -2847,7 +2870,7 @@
         <v>9.3031385775283901E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1709.0641881717099</v>
       </c>
@@ -2891,7 +2914,7 @@
         <v>1.5415122695889401</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -2935,7 +2958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1772.54613786915</v>
       </c>
@@ -2979,7 +3002,7 @@
         <v>1.9209014479670401</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>945.023483024082</v>
       </c>
@@ -3023,7 +3046,7 @@
         <v>1.19239330064757</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1207.2449978214499</v>
       </c>
@@ -3067,7 +3090,7 @@
         <v>2.1875646082482598</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>928.25214531905999</v>
       </c>
@@ -3111,7 +3134,7 @@
         <v>1.40184810667131</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1555.3788825343099</v>
       </c>
@@ -3155,7 +3178,7 @@
         <v>5.1136266581535098E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1818.48160144283</v>
       </c>
@@ -3197,6 +3220,82 @@
       </c>
       <c r="N21">
         <v>0.56217056079619199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C29" s="3">
+        <v>2.8481542798030102</v>
+      </c>
+      <c r="D29" s="3">
+        <v>-2.1456130861643402E-3</v>
+      </c>
+      <c r="E29" s="3">
+        <v>3.0449411611117898</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-5.9347709033486201E-4</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1.37083179388561E-2</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1.7523330350945499E-2</v>
+      </c>
+      <c r="I29" s="3">
+        <v>2.5827938831575601</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1.37636969257252</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0.53153711445798002</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0.55957907482013203</v>
+      </c>
+      <c r="M29" s="3">
+        <v>1.6700002437178899E-2</v>
+      </c>
+      <c r="N29" s="3">
+        <v>1.18336697194636</v>
       </c>
     </row>
   </sheetData>
